--- a/Team-Data/2014-15/1-30-2014-15.xlsx
+++ b/Team-Data/2014-15/1-30-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.83</v>
+        <v>0.826</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J2" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.473</v>
@@ -696,16 +763,16 @@
         <v>25.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.389</v>
+        <v>0.387</v>
       </c>
       <c r="O2" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P2" t="n">
         <v>22.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.773</v>
+        <v>0.776</v>
       </c>
       <c r="R2" t="n">
         <v>8.5</v>
@@ -723,43 +790,43 @@
         <v>14.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA2" t="n">
         <v>20.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="AC2" t="n">
         <v>7.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>27</v>
@@ -771,16 +838,16 @@
         <v>5</v>
       </c>
       <c r="AM2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
         <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
@@ -792,7 +859,7 @@
         <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -804,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>0.356</v>
+        <v>0.364</v>
       </c>
       <c r="H3" t="n">
         <v>48.6</v>
       </c>
       <c r="I3" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J3" t="n">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L3" t="n">
         <v>7.6</v>
@@ -878,31 +945,31 @@
         <v>23</v>
       </c>
       <c r="N3" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="O3" t="n">
         <v>14.9</v>
       </c>
       <c r="P3" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R3" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S3" t="n">
         <v>32.7</v>
       </c>
       <c r="T3" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U3" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="V3" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -920,7 +987,7 @@
         <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.4</v>
+        <v>101.8</v>
       </c>
       <c r="AC3" t="n">
         <v>-2</v>
@@ -929,16 +996,16 @@
         <v>28</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG3" t="n">
         <v>21</v>
       </c>
-      <c r="AG3" t="n">
-        <v>23</v>
-      </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
         <v>4</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
@@ -962,16 +1029,16 @@
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
         <v>15</v>
@@ -983,7 +1050,7 @@
         <v>17</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX3" t="n">
         <v>25</v>
@@ -992,13 +1059,13 @@
         <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>0.391</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>36.3</v>
+        <v>36</v>
       </c>
       <c r="J4" t="n">
-        <v>81.59999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L4" t="n">
         <v>6.6</v>
@@ -1060,31 +1127,31 @@
         <v>20.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.316</v>
+        <v>0.318</v>
       </c>
       <c r="O4" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S4" t="n">
         <v>32</v>
       </c>
       <c r="T4" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U4" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="W4" t="n">
         <v>7.3</v>
@@ -1099,49 +1166,49 @@
         <v>20</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC4" t="n">
         <v>-3.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
         <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>18</v>
       </c>
       <c r="AN4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1153,16 +1220,16 @@
         <v>26</v>
       </c>
       <c r="AS4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV4" t="n">
         <v>16</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>15</v>
       </c>
       <c r="AW4" t="n">
         <v>19</v>
@@ -1174,10 +1241,10 @@
         <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1308,7 +1375,7 @@
         <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1326,7 +1393,7 @@
         <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>26</v>
@@ -1338,10 +1405,10 @@
         <v>9</v>
       </c>
       <c r="AT5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1365,7 +1432,7 @@
         <v>27</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -1394,52 +1461,52 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
         <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>0.612</v>
+        <v>0.625</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J6" t="n">
-        <v>83.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.443</v>
       </c>
       <c r="L6" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O6" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P6" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.782</v>
+        <v>0.785</v>
       </c>
       <c r="R6" t="n">
         <v>12.2</v>
       </c>
       <c r="S6" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T6" t="n">
         <v>45.7</v>
@@ -1466,16 +1533,16 @@
         <v>22.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
@@ -1490,7 +1557,7 @@
         <v>20</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>20</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1511,22 +1578,22 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>15</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1547,7 +1614,7 @@
         <v>9</v>
       </c>
       <c r="BC6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.583</v>
+        <v>0.574</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1597,34 +1664,34 @@
         <v>82.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="N7" t="n">
         <v>0.351</v>
       </c>
       <c r="O7" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P7" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="R7" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T7" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U7" t="n">
         <v>21.6</v>
@@ -1633,7 +1700,7 @@
         <v>13.6</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X7" t="n">
         <v>4</v>
@@ -1642,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AA7" t="n">
         <v>21.1</v>
@@ -1651,10 +1718,10 @@
         <v>101.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1684,16 +1751,16 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>13</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>14</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
@@ -1702,7 +1769,7 @@
         <v>24</v>
       </c>
       <c r="AT7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU7" t="n">
         <v>13</v>
@@ -1711,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX7" t="n">
         <v>28</v>
       </c>
       <c r="AY7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
@@ -1726,7 +1793,7 @@
         <v>8</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -1761,34 +1828,34 @@
         <v>47</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.66</v>
+        <v>0.638</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M8" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O8" t="n">
         <v>17</v>
@@ -1797,19 +1864,19 @@
         <v>22.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.761</v>
+        <v>0.766</v>
       </c>
       <c r="R8" t="n">
         <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>41.9</v>
       </c>
       <c r="U8" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V8" t="n">
         <v>12.4</v>
@@ -1824,28 +1891,28 @@
         <v>3.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB8" t="n">
-        <v>107</v>
+        <v>107.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>11</v>
@@ -1872,19 +1939,19 @@
         <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1893,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX8" t="n">
         <v>11</v>
@@ -1902,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-3</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
         <v>19</v>
@@ -2051,7 +2118,7 @@
         <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>6</v>
@@ -2069,16 +2136,16 @@
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY9" t="n">
         <v>27</v>
@@ -2093,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2209,16 +2276,16 @@
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
@@ -2230,7 +2297,7 @@
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2245,13 +2312,13 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV10" t="n">
         <v>10</v>
@@ -2260,7 +2327,7 @@
         <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
@@ -2272,7 +2339,7 @@
         <v>23</v>
       </c>
       <c r="BB10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC10" t="n">
         <v>19</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" t="n">
         <v>36</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.837</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="J11" t="n">
         <v>86.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.483</v>
+        <v>0.484</v>
       </c>
       <c r="L11" t="n">
         <v>10.3</v>
@@ -2334,37 +2401,37 @@
         <v>26.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0.384</v>
+        <v>0.387</v>
       </c>
       <c r="O11" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P11" t="n">
         <v>21.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.776</v>
+        <v>0.778</v>
       </c>
       <c r="R11" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S11" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="T11" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U11" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="V11" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W11" t="n">
         <v>9.4</v>
       </c>
       <c r="X11" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y11" t="n">
         <v>3.6</v>
@@ -2376,10 +2443,10 @@
         <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>110.9</v>
+        <v>111.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
         <v>30</v>
@@ -2391,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="AG11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -2421,13 +2488,13 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR11" t="n">
         <v>24</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>7</v>
@@ -2436,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -2501,46 +2568,46 @@
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K12" t="n">
         <v>0.44</v>
       </c>
       <c r="L12" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="M12" t="n">
         <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.1</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.722</v>
+        <v>0.719</v>
       </c>
       <c r="R12" t="n">
         <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U12" t="n">
         <v>21.2</v>
       </c>
       <c r="V12" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W12" t="n">
         <v>9.9</v>
@@ -2549,22 +2616,22 @@
         <v>4.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.6</v>
+        <v>102.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2576,16 +2643,16 @@
         <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK12" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,22 +2661,22 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT12" t="n">
         <v>13</v>
@@ -2624,19 +2691,19 @@
         <v>1</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA12" t="n">
         <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -2755,16 +2822,16 @@
         <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH13" t="n">
         <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2788,7 +2855,7 @@
         <v>16</v>
       </c>
       <c r="AR13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2797,7 +2864,7 @@
         <v>6</v>
       </c>
       <c r="AU13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
         <v>18</v>
@@ -2806,7 +2873,7 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -2850,43 +2917,43 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
         <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.681</v>
+        <v>0.696</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>82.40000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="M14" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.38</v>
+        <v>0.383</v>
       </c>
       <c r="O14" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P14" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q14" t="n">
         <v>0.747</v>
@@ -2898,19 +2965,19 @@
         <v>32.2</v>
       </c>
       <c r="T14" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U14" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="V14" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="W14" t="n">
         <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
         <v>3</v>
@@ -2919,25 +2986,25 @@
         <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2946,7 +3013,7 @@
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2967,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
@@ -2997,7 +3064,7 @@
         <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
-        <v>0.283</v>
+        <v>0.277</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M15" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N15" t="n">
         <v>0.346</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P15" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T15" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U15" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V15" t="n">
         <v>13.1</v>
@@ -3098,19 +3165,19 @@
         <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.3</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,10 +3189,10 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>8</v>
@@ -3134,16 +3201,16 @@
         <v>24</v>
       </c>
       <c r="AL15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM15" t="n">
         <v>23</v>
       </c>
-      <c r="AM15" t="n">
-        <v>22</v>
-      </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
         <v>8</v>
@@ -3158,31 +3225,31 @@
         <v>18</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>7</v>
       </c>
       <c r="AW15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>5.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,13 +3374,13 @@
         <v>1</v>
       </c>
       <c r="AI16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK16" t="n">
         <v>8</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>7</v>
       </c>
       <c r="AL16" t="n">
         <v>28</v>
@@ -3322,16 +3389,16 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
         <v>7</v>
       </c>
       <c r="AP16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>22</v>
@@ -3346,7 +3413,7 @@
         <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
@@ -3364,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="BB16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -3396,85 +3463,85 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" t="n">
         <v>20</v>
       </c>
       <c r="F17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>0.435</v>
+        <v>0.444</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="J17" t="n">
-        <v>74.90000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.455</v>
+        <v>0.459</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M17" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="R17" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="T17" t="n">
-        <v>37.7</v>
+        <v>37.3</v>
       </c>
       <c r="U17" t="n">
         <v>19.9</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X17" t="n">
         <v>4.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>92.7</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.7</v>
+        <v>-3.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,25 +3562,25 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
       </c>
       <c r="AM17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,10 +3595,10 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX17" t="n">
         <v>26</v>
@@ -3543,10 +3610,10 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC17" t="n">
         <v>24</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3674,10 +3741,10 @@
         <v>13</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL18" t="n">
         <v>18</v>
@@ -3719,7 +3786,7 @@
         <v>14</v>
       </c>
       <c r="AY18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>0.174</v>
+        <v>0.178</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J19" t="n">
-        <v>84.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K19" t="n">
         <v>0.435</v>
@@ -3793,58 +3860,58 @@
         <v>0.335</v>
       </c>
       <c r="O19" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P19" t="n">
         <v>24.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R19" t="n">
         <v>12.1</v>
       </c>
       <c r="S19" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T19" t="n">
         <v>41</v>
       </c>
       <c r="U19" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X19" t="n">
         <v>4.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z19" t="n">
         <v>19.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>-9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG19" t="n">
         <v>30</v>
@@ -3856,7 +3923,7 @@
         <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3871,13 +3938,13 @@
         <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR19" t="n">
         <v>4</v>
@@ -3886,13 +3953,13 @@
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU19" t="n">
         <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>7</v>
@@ -3904,13 +3971,13 @@
         <v>28</v>
       </c>
       <c r="AZ19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA19" t="n">
         <v>7</v>
       </c>
       <c r="BB19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -3957,70 +4024,70 @@
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.5</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M20" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.348</v>
+        <v>0.341</v>
       </c>
       <c r="O20" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.766</v>
+        <v>0.755</v>
       </c>
       <c r="R20" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
         <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.8</v>
+        <v>44</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V20" t="n">
         <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>19.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4032,61 +4099,61 @@
         <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS20" t="n">
         <v>16</v>
       </c>
-      <c r="AO20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>17</v>
-      </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV20" t="n">
         <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-7.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG21" t="n">
         <v>29</v>
@@ -4229,10 +4296,10 @@
         <v>15</v>
       </c>
       <c r="AM21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4244,7 +4311,7 @@
         <v>11</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
@@ -4259,7 +4326,7 @@
         <v>19</v>
       </c>
       <c r="AW21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX21" t="n">
         <v>27</v>
@@ -4271,10 +4338,10 @@
         <v>25</v>
       </c>
       <c r="BA21" t="n">
+        <v>28</v>
+      </c>
+      <c r="BB21" t="n">
         <v>29</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>28</v>
       </c>
       <c r="BC21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>16</v>
@@ -4396,16 +4463,16 @@
         <v>16</v>
       </c>
       <c r="AH22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI22" t="n">
         <v>15</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>16</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
@@ -4414,16 +4481,16 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
         <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
         <v>5</v>
@@ -4435,10 +4502,10 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
         <v>18</v>
@@ -4447,7 +4514,7 @@
         <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
         <v>28</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23" t="n">
-        <v>0.313</v>
+        <v>0.306</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N23" t="n">
         <v>0.362</v>
@@ -4527,16 +4594,16 @@
         <v>19.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="U23" t="n">
         <v>20.3</v>
@@ -4545,28 +4612,28 @@
         <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA23" t="n">
         <v>18.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.9</v>
+        <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4578,22 +4645,22 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN23" t="n">
         <v>8</v>
@@ -4602,7 +4669,7 @@
         <v>29</v>
       </c>
       <c r="AP23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ23" t="n">
         <v>27</v>
@@ -4617,25 +4684,25 @@
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>21</v>
       </c>
       <c r="BA23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>37</v>
       </c>
       <c r="G24" t="n">
-        <v>0.213</v>
+        <v>0.196</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="J24" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.41</v>
+        <v>0.408</v>
       </c>
       <c r="L24" t="n">
         <v>7</v>
@@ -4700,55 +4767,55 @@
         <v>23.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.298</v>
+        <v>0.297</v>
       </c>
       <c r="O24" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P24" t="n">
         <v>24.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.681</v>
       </c>
       <c r="R24" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T24" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="U24" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="V24" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="W24" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y24" t="n">
         <v>5.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>-11.6</v>
+        <v>-12.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4796,10 +4863,10 @@
         <v>27</v>
       </c>
       <c r="AT24" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4811,13 +4878,13 @@
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -4852,61 +4919,61 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" t="n">
         <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>0.583</v>
+        <v>0.574</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="J25" t="n">
-        <v>86.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K25" t="n">
         <v>0.466</v>
       </c>
       <c r="L25" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O25" t="n">
         <v>17.2</v>
       </c>
       <c r="P25" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.791</v>
+        <v>0.789</v>
       </c>
       <c r="R25" t="n">
         <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T25" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U25" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V25" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W25" t="n">
         <v>8.699999999999999</v>
@@ -4921,16 +4988,16 @@
         <v>22.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4942,7 +5009,7 @@
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI25" t="n">
         <v>3</v>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL25" t="n">
         <v>6</v>
@@ -4963,7 +5030,7 @@
         <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
@@ -4981,7 +5048,7 @@
         <v>18</v>
       </c>
       <c r="AU25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV25" t="n">
         <v>23</v>
@@ -4990,13 +5057,13 @@
         <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>13</v>
@@ -5005,7 +5072,7 @@
         <v>2</v>
       </c>
       <c r="BC25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="n">
         <v>32</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.681</v>
+        <v>0.696</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5061,40 +5128,40 @@
         <v>10.2</v>
       </c>
       <c r="M26" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="N26" t="n">
         <v>0.37</v>
       </c>
       <c r="O26" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P26" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.794</v>
+        <v>0.793</v>
       </c>
       <c r="R26" t="n">
         <v>10.9</v>
       </c>
       <c r="S26" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="T26" t="n">
-        <v>45.6</v>
+        <v>45.5</v>
       </c>
       <c r="U26" t="n">
         <v>22.4</v>
       </c>
       <c r="V26" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W26" t="n">
         <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y26" t="n">
         <v>3.5</v>
@@ -5103,28 +5170,28 @@
         <v>19.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
@@ -5154,10 +5221,10 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>4</v>
@@ -5169,7 +5236,7 @@
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
@@ -5178,16 +5245,16 @@
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -5216,37 +5283,37 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" t="n">
-        <v>0.356</v>
+        <v>0.364</v>
       </c>
       <c r="H27" t="n">
         <v>48.7</v>
       </c>
       <c r="I27" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M27" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.33</v>
+        <v>0.334</v>
       </c>
       <c r="O27" t="n">
         <v>23.2</v>
@@ -5255,19 +5322,19 @@
         <v>29.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R27" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S27" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T27" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U27" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V27" t="n">
         <v>16.5</v>
@@ -5282,40 +5349,40 @@
         <v>6.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA27" t="n">
         <v>24.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.4</v>
+        <v>101.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.1</v>
+        <v>-2.9</v>
       </c>
       <c r="AD27" t="n">
         <v>28</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG27" t="n">
         <v>21</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5366,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.63</v>
+        <v>0.638</v>
       </c>
       <c r="H28" t="n">
         <v>49</v>
@@ -5416,25 +5483,25 @@
         <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>83.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="O28" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="Q28" t="n">
         <v>0.768</v>
@@ -5443,19 +5510,19 @@
         <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
         <v>5.5</v>
@@ -5467,34 +5534,34 @@
         <v>19.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB28" t="n">
         <v>101.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>12</v>
@@ -5509,10 +5576,10 @@
         <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
         <v>10</v>
@@ -5524,16 +5591,16 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
@@ -5545,7 +5612,7 @@
         <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
         <v>14</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -5580,52 +5647,52 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0.681</v>
+        <v>0.674</v>
       </c>
       <c r="H29" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="J29" t="n">
-        <v>84.7</v>
+        <v>84.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L29" t="n">
         <v>8.9</v>
       </c>
       <c r="M29" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O29" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P29" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.783</v>
+        <v>0.78</v>
       </c>
       <c r="R29" t="n">
         <v>11.4</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
         <v>42</v>
@@ -5634,7 +5701,7 @@
         <v>21.1</v>
       </c>
       <c r="V29" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W29" t="n">
         <v>7.5</v>
@@ -5652,34 +5719,34 @@
         <v>21.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>106.5</v>
+        <v>106</v>
       </c>
       <c r="AC29" t="n">
         <v>5.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AI29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="n">
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5697,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="AQ29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR29" t="n">
         <v>11</v>
@@ -5706,19 +5773,19 @@
         <v>26</v>
       </c>
       <c r="AT29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" t="n">
         <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>0.362</v>
+        <v>0.348</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J30" t="n">
-        <v>79.3</v>
+        <v>79</v>
       </c>
       <c r="K30" t="n">
         <v>0.451</v>
@@ -5792,34 +5859,34 @@
         <v>21.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O30" t="n">
         <v>17.1</v>
       </c>
       <c r="P30" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.745</v>
+        <v>0.749</v>
       </c>
       <c r="R30" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="T30" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U30" t="n">
         <v>20.3</v>
       </c>
       <c r="V30" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W30" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X30" t="n">
         <v>5.9</v>
@@ -5828,28 +5895,28 @@
         <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA30" t="n">
         <v>19.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-2.6</v>
+        <v>-2.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
         <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5861,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
         <v>17</v>
@@ -5870,19 +5937,19 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5891,7 +5958,7 @@
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV30" t="n">
         <v>26</v>
@@ -5915,7 +5982,7 @@
         <v>24</v>
       </c>
       <c r="BC30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>2.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF31" t="n">
         <v>8</v>
@@ -6040,7 +6107,7 @@
         <v>6</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK31" t="n">
         <v>3</v>
@@ -6067,7 +6134,7 @@
         <v>21</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
         <v>10</v>
@@ -6079,7 +6146,7 @@
         <v>20</v>
       </c>
       <c r="AW31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
         <v>13</v>
@@ -6091,10 +6158,10 @@
         <v>17</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
         <v>12</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-30-2014-15</t>
+          <t>2015-01-30</t>
         </is>
       </c>
     </row>
